--- a/Задание 5/5_12_RES5_Normal_Trashko.xlsx
+++ b/Задание 5/5_12_RES5_Normal_Trashko.xlsx
@@ -378,9 +378,6 @@
     <t>Увеличение числа классов уменьшает вероятность превышения для гипотезы о нормальности распределения. Если для большего числа классов гипотеза о нормальности отвергается, а для меньшего - принимается, следует руководствоваться вероятностью превышения для большего числа классов, т.е. отвергнуть гипотезу.</t>
   </si>
   <si>
-    <t>Распределение переменной близко к нормальному, но таковым не является.</t>
-  </si>
-  <si>
     <t>Распределение переменной далеко от нормального</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>При увеличении сигмы доверительный интервал увеличивается в такое же количество раз</t>
+  </si>
+  <si>
+    <t>Распределение переменной близко к нормальному.</t>
   </si>
 </sst>
 </file>
@@ -1258,11 +1258,38 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1270,76 +1297,49 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1879,8 +1879,8 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
@@ -1967,8 +1967,8 @@
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -2256,7 +2256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6824,193 +6824,193 @@
     </row>
     <row r="122" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="22"/>
-      <c r="B122" s="127" t="s">
+      <c r="B122" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
-      <c r="F122" s="127"/>
+      <c r="C122" s="131"/>
+      <c r="D122" s="131"/>
+      <c r="E122" s="131"/>
+      <c r="F122" s="131"/>
       <c r="G122" s="22"/>
       <c r="H122" s="62"/>
       <c r="I122" s="22"/>
-      <c r="J122" s="127" t="s">
+      <c r="J122" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="K122" s="127"/>
-      <c r="L122" s="127"/>
-      <c r="M122" s="127"/>
-      <c r="N122" s="127"/>
+      <c r="K122" s="131"/>
+      <c r="L122" s="131"/>
+      <c r="M122" s="131"/>
+      <c r="N122" s="131"/>
       <c r="O122" s="23"/>
     </row>
     <row r="123" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="22"/>
-      <c r="B123" s="127"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
-      <c r="F123" s="127"/>
+      <c r="B123" s="131"/>
+      <c r="C123" s="131"/>
+      <c r="D123" s="131"/>
+      <c r="E123" s="131"/>
+      <c r="F123" s="131"/>
       <c r="G123" s="49"/>
       <c r="H123" s="62"/>
       <c r="I123" s="22"/>
-      <c r="J123" s="127"/>
-      <c r="K123" s="127"/>
-      <c r="L123" s="127"/>
-      <c r="M123" s="127"/>
-      <c r="N123" s="127"/>
+      <c r="J123" s="131"/>
+      <c r="K123" s="131"/>
+      <c r="L123" s="131"/>
+      <c r="M123" s="131"/>
+      <c r="N123" s="131"/>
       <c r="O123" s="23"/>
     </row>
     <row r="124" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="22"/>
-      <c r="B124" s="127"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
-      <c r="F124" s="127"/>
+      <c r="B124" s="131"/>
+      <c r="C124" s="131"/>
+      <c r="D124" s="131"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="131"/>
       <c r="G124" s="22"/>
       <c r="H124" s="62"/>
       <c r="I124" s="22"/>
-      <c r="J124" s="127"/>
-      <c r="K124" s="127"/>
-      <c r="L124" s="127"/>
-      <c r="M124" s="127"/>
-      <c r="N124" s="127"/>
+      <c r="J124" s="131"/>
+      <c r="K124" s="131"/>
+      <c r="L124" s="131"/>
+      <c r="M124" s="131"/>
+      <c r="N124" s="131"/>
       <c r="O124" s="23"/>
     </row>
     <row r="125" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="22"/>
-      <c r="B125" s="127"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
-      <c r="F125" s="127"/>
+      <c r="B125" s="131"/>
+      <c r="C125" s="131"/>
+      <c r="D125" s="131"/>
+      <c r="E125" s="131"/>
+      <c r="F125" s="131"/>
       <c r="G125" s="22"/>
       <c r="H125" s="62"/>
       <c r="I125" s="22"/>
-      <c r="J125" s="127"/>
-      <c r="K125" s="127"/>
-      <c r="L125" s="127"/>
-      <c r="M125" s="127"/>
-      <c r="N125" s="127"/>
+      <c r="J125" s="131"/>
+      <c r="K125" s="131"/>
+      <c r="L125" s="131"/>
+      <c r="M125" s="131"/>
+      <c r="N125" s="131"/>
       <c r="O125" s="23"/>
     </row>
     <row r="126" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="22"/>
-      <c r="B126" s="127"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
+      <c r="B126" s="131"/>
+      <c r="C126" s="131"/>
+      <c r="D126" s="131"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="131"/>
       <c r="G126" s="26"/>
       <c r="H126" s="62"/>
       <c r="I126" s="22"/>
-      <c r="J126" s="127"/>
-      <c r="K126" s="127"/>
-      <c r="L126" s="127"/>
-      <c r="M126" s="127"/>
-      <c r="N126" s="127"/>
+      <c r="J126" s="131"/>
+      <c r="K126" s="131"/>
+      <c r="L126" s="131"/>
+      <c r="M126" s="131"/>
+      <c r="N126" s="131"/>
       <c r="O126" s="23"/>
     </row>
     <row r="127" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="22"/>
-      <c r="B127" s="127"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
-      <c r="F127" s="127"/>
+      <c r="B127" s="131"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="131"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
       <c r="G127" s="22"/>
       <c r="H127" s="62"/>
       <c r="I127" s="22"/>
-      <c r="J127" s="127"/>
-      <c r="K127" s="127"/>
-      <c r="L127" s="127"/>
-      <c r="M127" s="127"/>
-      <c r="N127" s="127"/>
+      <c r="J127" s="131"/>
+      <c r="K127" s="131"/>
+      <c r="L127" s="131"/>
+      <c r="M127" s="131"/>
+      <c r="N127" s="131"/>
       <c r="O127" s="23"/>
     </row>
     <row r="128" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="22"/>
-      <c r="B128" s="127"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
-      <c r="F128" s="127"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="131"/>
+      <c r="F128" s="131"/>
       <c r="G128" s="26"/>
       <c r="H128" s="62"/>
       <c r="I128" s="22"/>
-      <c r="J128" s="127"/>
-      <c r="K128" s="127"/>
-      <c r="L128" s="127"/>
-      <c r="M128" s="127"/>
-      <c r="N128" s="127"/>
+      <c r="J128" s="131"/>
+      <c r="K128" s="131"/>
+      <c r="L128" s="131"/>
+      <c r="M128" s="131"/>
+      <c r="N128" s="131"/>
       <c r="O128" s="23"/>
     </row>
     <row r="129" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="22"/>
-      <c r="B129" s="127"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
-      <c r="F129" s="127"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="131"/>
+      <c r="F129" s="131"/>
       <c r="G129" s="49"/>
       <c r="H129" s="62"/>
       <c r="I129" s="22"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="127"/>
-      <c r="M129" s="127"/>
-      <c r="N129" s="127"/>
+      <c r="J129" s="131"/>
+      <c r="K129" s="131"/>
+      <c r="L129" s="131"/>
+      <c r="M129" s="131"/>
+      <c r="N129" s="131"/>
       <c r="O129" s="23"/>
     </row>
     <row r="130" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="22"/>
-      <c r="B130" s="127"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="127"/>
-      <c r="E130" s="127"/>
-      <c r="F130" s="127"/>
+      <c r="B130" s="131"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="131"/>
+      <c r="E130" s="131"/>
+      <c r="F130" s="131"/>
       <c r="G130" s="22"/>
       <c r="H130" s="62"/>
       <c r="I130" s="22"/>
-      <c r="J130" s="127"/>
-      <c r="K130" s="127"/>
-      <c r="L130" s="127"/>
-      <c r="M130" s="127"/>
-      <c r="N130" s="127"/>
+      <c r="J130" s="131"/>
+      <c r="K130" s="131"/>
+      <c r="L130" s="131"/>
+      <c r="M130" s="131"/>
+      <c r="N130" s="131"/>
       <c r="O130" s="23"/>
     </row>
     <row r="131" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="22"/>
-      <c r="B131" s="127"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
-      <c r="F131" s="127"/>
+      <c r="B131" s="131"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="131"/>
+      <c r="E131" s="131"/>
+      <c r="F131" s="131"/>
       <c r="G131" s="22"/>
       <c r="H131" s="62"/>
       <c r="I131" s="22"/>
-      <c r="J131" s="127"/>
-      <c r="K131" s="127"/>
-      <c r="L131" s="127"/>
-      <c r="M131" s="127"/>
-      <c r="N131" s="127"/>
+      <c r="J131" s="131"/>
+      <c r="K131" s="131"/>
+      <c r="L131" s="131"/>
+      <c r="M131" s="131"/>
+      <c r="N131" s="131"/>
       <c r="O131" s="23"/>
     </row>
     <row r="132" spans="1:15" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
-      <c r="B132" s="127"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="127"/>
-      <c r="E132" s="127"/>
-      <c r="F132" s="127"/>
+      <c r="B132" s="131"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="131"/>
+      <c r="F132" s="131"/>
       <c r="G132" s="26"/>
       <c r="H132" s="62"/>
       <c r="I132" s="22"/>
-      <c r="J132" s="127"/>
-      <c r="K132" s="127"/>
-      <c r="L132" s="127"/>
-      <c r="M132" s="127"/>
-      <c r="N132" s="127"/>
+      <c r="J132" s="131"/>
+      <c r="K132" s="131"/>
+      <c r="L132" s="131"/>
+      <c r="M132" s="131"/>
+      <c r="N132" s="131"/>
       <c r="O132" s="23"/>
     </row>
     <row r="133" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8181,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:Q61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8264,24 +8264,24 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -8289,22 +8289,22 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -8312,22 +8312,22 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -8335,22 +8335,22 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -8358,22 +8358,22 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -8381,22 +8381,22 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -8548,7 +8548,7 @@
       <c r="C19" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="127">
         <v>3.7559999999999998E-3</v>
       </c>
       <c r="E19" s="79" t="s">
@@ -8566,7 +8566,7 @@
       <c r="M19" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="142">
+      <c r="N19" s="127">
         <v>2.2E-16</v>
       </c>
       <c r="O19" s="79" t="s">
@@ -8605,7 +8605,7 @@
       <c r="M20" s="77">
         <v>15</v>
       </c>
-      <c r="N20" s="143">
+      <c r="N20" s="128">
         <v>2.2E-16</v>
       </c>
       <c r="O20" s="79" t="s">
@@ -8644,7 +8644,7 @@
       <c r="M21" s="77">
         <v>7</v>
       </c>
-      <c r="N21" s="143">
+      <c r="N21" s="128">
         <v>2.2E-16</v>
       </c>
       <c r="O21" s="79" t="s">
@@ -8683,7 +8683,7 @@
       <c r="M22" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="143">
+      <c r="N22" s="128">
         <v>2.2E-16</v>
       </c>
       <c r="O22" s="79" t="s">
@@ -8722,7 +8722,7 @@
       <c r="M23" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="143">
+      <c r="N23" s="128">
         <v>2.2E-16</v>
       </c>
       <c r="O23" s="79" t="s">
@@ -8775,96 +8775,96 @@
       <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="146"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="144"/>
     </row>
     <row r="29" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="149"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="147"/>
     </row>
     <row r="30" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148"/>
-      <c r="Q30" s="149"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="147"/>
     </row>
     <row r="31" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="147"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="149"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="147"/>
     </row>
     <row r="32" spans="1:22" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="152"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="150"/>
     </row>
     <row r="33" spans="1:19" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>
@@ -8899,122 +8899,122 @@
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
+      <c r="B36" s="151" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-      <c r="L36" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="137"/>
-      <c r="Q36" s="137"/>
+      <c r="L36" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="141"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
       <c r="J37" s="72"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="137"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="141"/>
+      <c r="Q37" s="141"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="138"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
       <c r="J38" s="72"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
+      <c r="O38" s="141"/>
+      <c r="P38" s="141"/>
+      <c r="Q38" s="141"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="138"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
       <c r="J39" s="72"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="141"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="141"/>
+      <c r="Q39" s="141"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="138"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
       <c r="J40" s="72"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="137"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+      <c r="O40" s="141"/>
+      <c r="P40" s="141"/>
+      <c r="Q40" s="141"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
       <c r="J41" s="72"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="138"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
       <c r="J42" s="72"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="137"/>
-      <c r="P42" s="137"/>
-      <c r="Q42" s="137"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="141"/>
+      <c r="Q42" s="141"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="J43" s="72"/>
@@ -9074,46 +9074,46 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="46.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="134" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="134" t="s">
+      <c r="D48" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="135"/>
-      <c r="F48" s="129" t="s">
+      <c r="E48" s="137"/>
+      <c r="F48" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="130"/>
-      <c r="H48" s="129" t="s">
+      <c r="G48" s="139"/>
+      <c r="H48" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="130"/>
+      <c r="I48" s="139"/>
       <c r="J48" s="71"/>
-      <c r="L48" s="132" t="s">
+      <c r="L48" s="134" t="s">
         <v>1</v>
       </c>
       <c r="M48" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="N48" s="134" t="s">
+      <c r="N48" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="135"/>
-      <c r="P48" s="129" t="s">
+      <c r="O48" s="137"/>
+      <c r="P48" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="129" t="s">
+      <c r="Q48" s="139"/>
+      <c r="R48" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="S48" s="130"/>
+      <c r="S48" s="139"/>
     </row>
     <row r="49" spans="1:19" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="133"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="85" t="s">
         <v>3</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="71"/>
-      <c r="L49" s="136"/>
+      <c r="L49" s="140"/>
       <c r="M49" s="68" t="s">
         <v>3</v>
       </c>
@@ -9160,27 +9160,27 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
       <c r="J50" s="71"/>
-      <c r="L50" s="131" t="s">
+      <c r="L50" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="M50" s="131"/>
-      <c r="N50" s="131"/>
-      <c r="O50" s="131"/>
-      <c r="P50" s="131"/>
-      <c r="Q50" s="131"/>
-      <c r="R50" s="131"/>
-      <c r="S50" s="131"/>
+      <c r="M50" s="153"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="153"/>
+      <c r="P50" s="153"/>
+      <c r="Q50" s="153"/>
+      <c r="R50" s="153"/>
+      <c r="S50" s="153"/>
     </row>
     <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="81" t="s">
@@ -9206,27 +9206,27 @@
       <c r="S51" s="84"/>
     </row>
     <row r="52" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
       <c r="J52" s="71"/>
-      <c r="L52" s="131" t="s">
+      <c r="L52" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="M52" s="131"/>
-      <c r="N52" s="131"/>
-      <c r="O52" s="131"/>
-      <c r="P52" s="131"/>
-      <c r="Q52" s="131"/>
-      <c r="R52" s="131"/>
-      <c r="S52" s="131"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="153"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="153"/>
+      <c r="R52" s="153"/>
+      <c r="S52" s="153"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="81" t="s">
@@ -9252,27 +9252,27 @@
       <c r="S53" s="84"/>
     </row>
     <row r="54" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
       <c r="J54" s="71"/>
-      <c r="L54" s="131" t="s">
+      <c r="L54" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
-      <c r="O54" s="131"/>
-      <c r="P54" s="131"/>
-      <c r="Q54" s="131"/>
-      <c r="R54" s="131"/>
-      <c r="S54" s="131"/>
+      <c r="M54" s="153"/>
+      <c r="N54" s="153"/>
+      <c r="O54" s="153"/>
+      <c r="P54" s="153"/>
+      <c r="Q54" s="153"/>
+      <c r="R54" s="153"/>
+      <c r="S54" s="153"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="81" t="s">
@@ -9328,58 +9328,58 @@
       <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="128"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="128"/>
-      <c r="M59" s="128"/>
-      <c r="N59" s="128"/>
-      <c r="O59" s="128"/>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="128"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="133"/>
+      <c r="O59" s="133"/>
+      <c r="P59" s="133"/>
+      <c r="Q59" s="133"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="128"/>
-      <c r="N60" s="128"/>
-      <c r="O60" s="128"/>
-      <c r="P60" s="128"/>
-      <c r="Q60" s="128"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
+      <c r="Q60" s="133"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="128"/>
-      <c r="M61" s="128"/>
-      <c r="N61" s="128"/>
-      <c r="O61" s="128"/>
-      <c r="P61" s="128"/>
-      <c r="Q61" s="128"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="133"/>
+      <c r="O61" s="133"/>
+      <c r="P61" s="133"/>
+      <c r="Q61" s="133"/>
     </row>
     <row r="72" spans="2:17" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="57"/>
@@ -9409,18 +9409,18 @@
     <row r="80" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
     <row r="81" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
     <row r="82" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
       <c r="D94" s="56"/>
@@ -9438,7 +9438,7 @@
       <c r="P94" s="56"/>
       <c r="Q94" s="56"/>
     </row>
-    <row r="95" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
       <c r="D95" s="56"/>
@@ -9456,7 +9456,7 @@
       <c r="P95" s="56"/>
       <c r="Q95" s="56"/>
     </row>
-    <row r="96" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
       <c r="D96" s="56"/>
@@ -9474,7 +9474,7 @@
       <c r="P96" s="56"/>
       <c r="Q96" s="56"/>
     </row>
-    <row r="97" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
       <c r="D97" s="56"/>
@@ -9492,7 +9492,7 @@
       <c r="P97" s="56"/>
       <c r="Q97" s="56"/>
     </row>
-    <row r="98" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
       <c r="D98" s="56"/>
@@ -9510,8 +9510,8 @@
       <c r="P98" s="56"/>
       <c r="Q98" s="56"/>
     </row>
-    <row r="99" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="2:17" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:17" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
       <c r="D100" s="55"/>
@@ -9529,7 +9529,7 @@
       <c r="P100" s="55"/>
       <c r="Q100" s="55"/>
     </row>
-    <row r="101" spans="2:17" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:17" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
       <c r="D101" s="55"/>
@@ -9547,8 +9547,8 @@
       <c r="P101" s="55"/>
       <c r="Q101" s="55"/>
     </row>
-    <row r="102" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="2:17" s="14" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
       <c r="D103" s="56"/>
@@ -9646,6 +9646,15 @@
     <row r="113" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B59:Q61"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="L50:S50"/>
+    <mergeCell ref="L52:S52"/>
+    <mergeCell ref="L54:S54"/>
+    <mergeCell ref="R48:S48"/>
     <mergeCell ref="B6:Q11"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="D48:E48"/>
@@ -9656,15 +9665,6 @@
     <mergeCell ref="L36:Q42"/>
     <mergeCell ref="B28:Q32"/>
     <mergeCell ref="B36:H42"/>
-    <mergeCell ref="B59:Q61"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="L50:S50"/>
-    <mergeCell ref="L52:S52"/>
-    <mergeCell ref="L54:S54"/>
-    <mergeCell ref="R48:S48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9843,7 +9843,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -10021,11 +10021,11 @@
       <c r="D9" s="96">
         <v>0.5</v>
       </c>
-      <c r="E9" s="153">
+      <c r="E9" s="129">
         <f>(1-D9)</f>
         <v>0.5</v>
       </c>
-      <c r="F9" s="154">
+      <c r="F9" s="130">
         <f>E9/2</f>
         <v>0.25</v>
       </c>
@@ -10054,11 +10054,11 @@
       <c r="D10" s="97">
         <v>0.75</v>
       </c>
-      <c r="E10" s="153">
+      <c r="E10" s="129">
         <f t="shared" ref="E10:E13" si="0">(1-D10)</f>
         <v>0.25</v>
       </c>
-      <c r="F10" s="154">
+      <c r="F10" s="130">
         <f t="shared" ref="F10:F13" si="1">E10/2</f>
         <v>0.125</v>
       </c>
@@ -10087,11 +10087,11 @@
       <c r="D11" s="97">
         <v>0.9</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="129">
         <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F11" s="154">
+      <c r="F11" s="130">
         <f t="shared" si="1"/>
         <v>4.9999999999999989E-2</v>
       </c>
@@ -10120,11 +10120,11 @@
       <c r="D12" s="97">
         <v>0.95</v>
       </c>
-      <c r="E12" s="153">
+      <c r="E12" s="129">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F12" s="154">
+      <c r="F12" s="130">
         <f t="shared" si="1"/>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -10150,11 +10150,11 @@
       <c r="D13" s="97">
         <v>0.99</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="129">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F13" s="154">
+      <c r="F13" s="130">
         <f t="shared" si="1"/>
         <v>5.0000000000000044E-3</v>
       </c>
@@ -10214,7 +10214,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="14"/>
     </row>
@@ -10264,11 +10264,11 @@
       <c r="D20" s="108">
         <v>0.5</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="129">
         <f>(1-D20)</f>
         <v>0.5</v>
       </c>
-      <c r="F20" s="154">
+      <c r="F20" s="130">
         <f>E20/2</f>
         <v>0.25</v>
       </c>
@@ -10298,11 +10298,11 @@
       <c r="D21" s="109">
         <v>0.75</v>
       </c>
-      <c r="E21" s="153">
+      <c r="E21" s="129">
         <f t="shared" ref="E21:E24" si="5">(1-D21)</f>
         <v>0.25</v>
       </c>
-      <c r="F21" s="154">
+      <c r="F21" s="130">
         <f t="shared" ref="F21:F24" si="6">E21/2</f>
         <v>0.125</v>
       </c>
@@ -10332,11 +10332,11 @@
       <c r="D22" s="109">
         <v>0.9</v>
       </c>
-      <c r="E22" s="153">
+      <c r="E22" s="129">
         <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F22" s="154">
+      <c r="F22" s="130">
         <f t="shared" si="6"/>
         <v>4.9999999999999989E-2</v>
       </c>
@@ -10366,11 +10366,11 @@
       <c r="D23" s="109">
         <v>0.95</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="129">
         <f t="shared" si="5"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="130">
         <f t="shared" si="6"/>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -10400,11 +10400,11 @@
       <c r="D24" s="109">
         <v>0.99</v>
       </c>
-      <c r="E24" s="153">
+      <c r="E24" s="129">
         <f t="shared" si="5"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F24" s="154">
+      <c r="F24" s="130">
         <f t="shared" si="6"/>
         <v>5.0000000000000044E-3</v>
       </c>
@@ -10445,27 +10445,27 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -10483,54 +10483,54 @@
       <c r="K33" s="122"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
+      <c r="B35" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="137"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="121" t="s">
@@ -10538,54 +10538,54 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
+      <c r="B42" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="114" t="s">
@@ -10647,11 +10647,11 @@
       <c r="D51" s="109">
         <v>0.95</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="129">
         <f t="shared" ref="E51:E53" si="10">(1-D51)</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F51" s="154">
+      <c r="F51" s="130">
         <f t="shared" ref="F51:F53" si="11">E51/2</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -10679,11 +10679,11 @@
       <c r="D52" s="109">
         <v>0.95</v>
       </c>
-      <c r="E52" s="153">
+      <c r="E52" s="129">
         <f t="shared" si="10"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F52" s="154">
+      <c r="F52" s="130">
         <f t="shared" si="11"/>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -10711,11 +10711,11 @@
       <c r="D53" s="109">
         <v>0.95</v>
       </c>
-      <c r="E53" s="153">
+      <c r="E53" s="129">
         <f t="shared" si="10"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="F53" s="154">
+      <c r="F53" s="130">
         <f t="shared" si="11"/>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -10738,54 +10738,54 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="140" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
+      <c r="B57" s="154" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="154"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="154"/>
+      <c r="J59" s="154"/>
+      <c r="K59" s="154"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="3">
